--- a/biorefineries/cane/results/oilcane_spearman_7.xlsx
+++ b/biorefineries/cane/results/oilcane_spearman_7.xlsx
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03796081534243261</v>
+        <v>0.03779897402395896</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.09178928997557159</v>
+        <v>-0.09178759615150384</v>
       </c>
       <c r="F4" t="n">
         <v>0.005932306029292241</v>
@@ -757,48 +757,48 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.3263384798375392</v>
+        <v>-0.3263204428768177</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1039543374061735</v>
+        <v>0.1039190556767622</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.002820694672827786</v>
+        <v>0.002816445040657801</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04631714248694651</v>
+        <v>0.04521839746154013</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.01024192053767682</v>
+        <v>-0.002140804117632164</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.01024192053767682</v>
+        <v>-0.002140804117632164</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.01024192053767682</v>
+        <v>-0.002140804117632164</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01024192053767682</v>
+        <v>-0.002140804117632164</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.01024192053767682</v>
+        <v>-0.002140804117632164</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.2170816863792674</v>
+        <v>0.2176969602918784</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.01275215580608623</v>
+        <v>-0.004883434275337371</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01275215580608623</v>
+        <v>-0.004883434275337371</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.01275215580608623</v>
+        <v>-0.004883434275337371</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01275215580608623</v>
+        <v>-0.004883434275337371</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -806,10 +806,10 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>0.03313932785357311</v>
+        <v>0.03313651850946073</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03218304685532187</v>
+        <v>0.03754137730965509</v>
       </c>
     </row>
     <row r="5">
@@ -820,11 +820,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04500635844025433</v>
+        <v>0.04481918550476741</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.09704672231386888</v>
+        <v>-0.09704287021771479</v>
       </c>
       <c r="F5" t="n">
         <v>-0.01361305907252236</v>
@@ -837,48 +837,48 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-0.4404121068004843</v>
+        <v>-0.44026175063447</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1135095159643806</v>
+        <v>0.1135466931178677</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-0.0240053650562146</v>
+        <v>-0.02400182073607283</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09540244611892409</v>
+        <v>0.09603534567358514</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01361031577641263</v>
+        <v>0.02247717689908707</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01361031577641263</v>
+        <v>0.02247717689908707</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01361031577641263</v>
+        <v>0.02247717689908707</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01361031577641263</v>
+        <v>0.02247717689908707</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01361031577641263</v>
+        <v>0.02247717689908707</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.2975194274847771</v>
+        <v>0.2973226170129046</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01042085676883427</v>
+        <v>0.01899679371987175</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01042085676883427</v>
+        <v>0.01899679371987175</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01042085676883427</v>
+        <v>0.01899679371987175</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01042085676883427</v>
+        <v>0.01899679371987175</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -886,10 +886,10 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>0.0120438725777549</v>
+        <v>0.01204481376179255</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03018735864749434</v>
+        <v>0.03454622086984883</v>
       </c>
     </row>
     <row r="6">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.01917174105486964</v>
+        <v>-0.0191529624941185</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.01078008014320321</v>
+        <v>0.01079887166395486</v>
       </c>
       <c r="F6" t="n">
         <v>-0.009992326767693068</v>
@@ -917,48 +917,48 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-0.01095711720628469</v>
+        <v>-0.01104048456961938</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02593468538938741</v>
+        <v>-0.0259868977754759</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-0.005436260857450434</v>
+        <v>-0.005437740217509607</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0281028929251276</v>
+        <v>-0.02803674350433115</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006696171339846853</v>
+        <v>0.006649311049972441</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006696171339846853</v>
+        <v>0.006649311049972441</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006696171339846853</v>
+        <v>0.006649311049972441</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006696171339846853</v>
+        <v>0.006649311049972441</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006696171339846853</v>
+        <v>0.006649311049972441</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>-0.007548184717927388</v>
+        <v>-0.00751341524453661</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00684585627383425</v>
+        <v>0.006771899118875963</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00684585627383425</v>
+        <v>0.006771899118875963</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00684585627383425</v>
+        <v>0.006771899118875963</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.00684585627383425</v>
+        <v>0.006771899118875963</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -966,10 +966,10 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>-0.002589695239587809</v>
+        <v>-0.002590486087619443</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001986519631460785</v>
+        <v>0.00560206227208249</v>
       </c>
     </row>
     <row r="7">
@@ -980,11 +980,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3641563468542538</v>
+        <v>0.3641750547590022</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.1435518833100753</v>
+        <v>-0.1435563914702556</v>
       </c>
       <c r="F7" t="n">
         <v>-0.007013604184544165</v>
@@ -997,48 +997,48 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>7.229625889185034e-05</v>
+        <v>-3.80357775214311e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.004196015207840608</v>
+        <v>-0.004231444873257794</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-0.2358548094021923</v>
+        <v>-0.2358555436102217</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0108840398553182</v>
+        <v>-0.008324854753183418</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045426457817058</v>
+        <v>0.009891928235677128</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01045426457817058</v>
+        <v>0.009891928235677128</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01045426457817058</v>
+        <v>0.009891928235677128</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01045426457817058</v>
+        <v>0.009891928235677128</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01045426457817058</v>
+        <v>0.009891928235677128</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.001529876413195056</v>
+        <v>0.00135725851829034</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01050891594035664</v>
+        <v>0.009972526190901047</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01050891594035664</v>
+        <v>0.009972526190901047</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01050891594035664</v>
+        <v>0.009972526190901047</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01050891594035664</v>
+        <v>0.009972526190901047</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>0.001863136202525448</v>
+        <v>0.001859584106383364</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03484729089789163</v>
+        <v>0.03989682965987319</v>
       </c>
     </row>
     <row r="8">
@@ -1060,11 +1060,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0040437275217491</v>
+        <v>0.004052331618093264</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.006409745248389808</v>
+        <v>0.006421505440860216</v>
       </c>
       <c r="F8" t="n">
         <v>-0.004503516084140642</v>
@@ -1077,48 +1077,48 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-0.005120236044809441</v>
+        <v>-0.005191401903656075</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01453458230938329</v>
+        <v>-0.01459534397581376</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-0.003383498919339956</v>
+        <v>-0.003385934727437389</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003840821993328533</v>
+        <v>0.0005725011902937621</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006489742435589697</v>
+        <v>0.005948688237947528</v>
       </c>
       <c r="P8" t="n">
-        <v>0.006489742435589697</v>
+        <v>0.005948688237947528</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006489742435589697</v>
+        <v>0.005948688237947528</v>
       </c>
       <c r="R8" t="n">
-        <v>0.006489742435589697</v>
+        <v>0.005948688237947528</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006489742435589697</v>
+        <v>0.005948688237947528</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>-0.008734214557368582</v>
+        <v>-0.008837198753487948</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006579261287170451</v>
+        <v>0.00614263128570525</v>
       </c>
       <c r="W8" t="n">
-        <v>0.006579261287170451</v>
+        <v>0.00614263128570525</v>
       </c>
       <c r="X8" t="n">
-        <v>0.006579261287170451</v>
+        <v>0.00614263128570525</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006579261287170451</v>
+        <v>0.00614263128570525</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1126,10 +1126,10 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>-0.006516801380672055</v>
+        <v>-0.006514059332562372</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.01584939797797591</v>
+        <v>-0.02099511971980479</v>
       </c>
     </row>
     <row r="9">
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1934957057878282</v>
+        <v>0.1934485491459419</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.06808555357142214</v>
+        <v>-0.06803317193732687</v>
       </c>
       <c r="F9" t="n">
         <v>0.3116059929442397</v>
@@ -1161,48 +1161,48 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.01414380459775218</v>
+        <v>0.01420313365612534</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007133169981326798</v>
+        <v>0.007167740734709629</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.2876842913153716</v>
+        <v>0.287686026035441</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01353768989171559</v>
+        <v>-0.01403574743820894</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003993482655739306</v>
+        <v>0.003746641781865671</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003993482655739306</v>
+        <v>0.003746641781865671</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003993482655739306</v>
+        <v>0.003746641781865671</v>
       </c>
       <c r="R9" t="n">
-        <v>0.003993482655739306</v>
+        <v>0.003746641781865671</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003993482655739306</v>
+        <v>0.003746641781865671</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.000212040200481608</v>
+        <v>0.0001031086121243445</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004043539169741566</v>
+        <v>0.003775659607026384</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004043539169741566</v>
+        <v>0.003775659607026384</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004043539169741566</v>
+        <v>0.003775659607026384</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004043539169741566</v>
+        <v>0.003775659607026384</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1210,10 +1210,10 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>0.01243238353729534</v>
+        <v>0.0124332350573294</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.02472774665310986</v>
+        <v>0.02675473806218952</v>
       </c>
     </row>
     <row r="10">
@@ -1224,11 +1224,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6628658306106332</v>
+        <v>0.6628842934273717</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.8836090172323605</v>
+        <v>-0.8836041724961667</v>
       </c>
       <c r="F10" t="n">
         <v>0.9416292252811689</v>
@@ -1241,48 +1241,48 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.04225417388216695</v>
+        <v>0.04271865127674605</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01128762611550504</v>
+        <v>0.01154909585396383</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.9015390460455617</v>
+        <v>0.9015421519336859</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05217948129617313</v>
+        <v>-0.05283318822591312</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.9848841092513643</v>
+        <v>-0.9851752595030103</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9848841092513643</v>
+        <v>-0.9851752595030103</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.9848841092513643</v>
+        <v>-0.9851752595030103</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9848841092513643</v>
+        <v>-0.9851752595030103</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.9848841092513643</v>
+        <v>-0.9851752595030103</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>-0.8296770555550822</v>
+        <v>-0.8293573821662952</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.9847248759649949</v>
+        <v>-0.9850946434037856</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.9847248759649949</v>
+        <v>-0.9850946434037856</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.9847248759649949</v>
+        <v>-0.9850946434037856</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.9847248759649949</v>
+        <v>-0.9850946434037856</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>0.9205742646309706</v>
+        <v>0.9205763946790557</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4373528178461127</v>
+        <v>0.4443559318222371</v>
       </c>
     </row>
     <row r="11">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04825526660221065</v>
+        <v>0.04826246497049859</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.02958910303956412</v>
+        <v>-0.02956756294270252</v>
       </c>
       <c r="F11" t="n">
         <v>0.01262109151284366</v>
@@ -1325,48 +1325,48 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>-0.01718637889545515</v>
+        <v>-0.01726801614672065</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01314868986994759</v>
+        <v>-0.01319448955177958</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.01081853419274137</v>
+        <v>0.01082143099285724</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.02154909065839194</v>
+        <v>-0.01936703788165862</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.02004469913778796</v>
+        <v>-0.02067666591506663</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.02004469913778796</v>
+        <v>-0.02067666591506663</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.02004469913778796</v>
+        <v>-0.02067666591506663</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.02004469913778796</v>
+        <v>-0.02067666591506663</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.02004469913778796</v>
+        <v>-0.02067666591506663</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>-0.02071020610840824</v>
+        <v>-0.02073278185331127</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0199481575019263</v>
+        <v>-0.02058349215133968</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0199481575019263</v>
+        <v>-0.02058349215133968</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.0199481575019263</v>
+        <v>-0.02058349215133968</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0199481575019263</v>
+        <v>-0.02058349215133968</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1374,10 +1374,10 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>0.04436831649473266</v>
+        <v>0.04436726452669058</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02543401205736048</v>
+        <v>0.02619884370395374</v>
       </c>
     </row>
     <row r="12">
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.003174084222963368</v>
+        <v>-0.003193159423726377</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.2403821869592875</v>
+        <v>0.2403874598554983</v>
       </c>
       <c r="F12" t="n">
         <v>-0.0226575177063007</v>
@@ -1409,48 +1409,48 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-0.000150858726034349</v>
+        <v>-0.0001436586297463452</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01752183276487331</v>
+        <v>-0.01750011074800443</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-0.02685516789020671</v>
+        <v>-0.02685618904224756</v>
       </c>
       <c r="N12" t="n">
-        <v>0.006522978354726697</v>
+        <v>0.00522128865589781</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02800623040024921</v>
+        <v>0.02745711729028469</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02800623040024921</v>
+        <v>0.02745711729028469</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02800623040024921</v>
+        <v>0.02745711729028469</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02800623040024921</v>
+        <v>0.02745711729028469</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02800623040024921</v>
+        <v>0.02745711729028469</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.008724394716975788</v>
+        <v>0.008670428218817128</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02812538464501538</v>
+        <v>0.02757460036698401</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02812538464501538</v>
+        <v>0.02757460036698401</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02812538464501538</v>
+        <v>0.02757460036698401</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02812538464501538</v>
+        <v>0.02757460036698401</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1458,10 +1458,10 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>-0.3217735282629411</v>
+        <v>-0.3217669938306797</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.2014628307785132</v>
+        <v>-0.2048282059531282</v>
       </c>
     </row>
     <row r="13">
@@ -1476,11 +1476,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.00440590952023638</v>
+        <v>0.004408654160346166</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.009223597808943912</v>
+        <v>-0.009225644817025791</v>
       </c>
       <c r="F13" t="n">
         <v>0.01402414875296595</v>
@@ -1493,48 +1493,48 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.00104919700196788</v>
+        <v>0.001200565776022631</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008593744183749766</v>
+        <v>0.008679344219173768</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.01266674201066968</v>
+        <v>0.01266969727478789</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009846544812665411</v>
+        <v>0.01138686935775544</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.007206947424277896</v>
+        <v>-0.006881102771244109</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.007206947424277896</v>
+        <v>-0.006881102771244109</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.007206947424277896</v>
+        <v>-0.006881102771244109</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.007206947424277896</v>
+        <v>-0.006881102771244109</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.007206947424277896</v>
+        <v>-0.006881102771244109</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.005086367243454689</v>
+        <v>0.004956950310278012</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.007264795202591807</v>
+        <v>-0.007010772664430905</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.007264795202591807</v>
+        <v>-0.007010772664430905</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.007264795202591807</v>
+        <v>-0.007010772664430905</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.007264795202591807</v>
+        <v>-0.007010772664430905</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1542,10 +1542,10 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>0.002647604457904178</v>
+        <v>0.002649691305987652</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.01406828849873154</v>
+        <v>-0.004018554496742179</v>
       </c>
     </row>
     <row r="14">
@@ -1560,11 +1560,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2093653363426135</v>
+        <v>0.2093667987106719</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.01047019145880766</v>
+        <v>0.01049545078781803</v>
       </c>
       <c r="F14" t="n">
         <v>-0.01649081374763255</v>
@@ -1577,48 +1577,48 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.0101658900706356</v>
+        <v>0.01014191416567656</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007782629783305191</v>
+        <v>0.007789221335568851</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-0.02282174068886963</v>
+        <v>-0.02282186606487464</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01451460439173575</v>
+        <v>-0.01538649689581394</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01113296886131875</v>
+        <v>0.01145124209004968</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01113296886131875</v>
+        <v>0.01145124209004968</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01113296886131875</v>
+        <v>0.01145124209004968</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01113296886131875</v>
+        <v>0.01145124209004968</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01113296886131875</v>
+        <v>0.01145124209004968</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.01086907473876299</v>
+        <v>0.01081938667277547</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01110038953201558</v>
+        <v>0.01142324186492967</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01110038953201558</v>
+        <v>0.01142324186492967</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01110038953201558</v>
+        <v>0.01142324186492967</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01110038953201558</v>
+        <v>0.01142324186492967</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1626,10 +1626,10 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>0.1055718231348729</v>
+        <v>0.1055654346226174</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.08206586382663454</v>
+        <v>0.07883060897722435</v>
       </c>
     </row>
     <row r="15">
@@ -1644,11 +1644,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01895899919035996</v>
+        <v>-0.01892747941309917</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.01519307772772311</v>
+        <v>0.01520613132824525</v>
       </c>
       <c r="F15" t="n">
         <v>-0.00912343678093747</v>
@@ -1661,48 +1661,48 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-0.01062610708104428</v>
+        <v>-0.01070640906825636</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01202980963319238</v>
+        <v>-0.01208227718729109</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-0.007947467453898696</v>
+        <v>-0.007952459070098361</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.004498968223592329</v>
+        <v>-0.004689916701781945</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008543148437725938</v>
+        <v>0.008563195926527836</v>
       </c>
       <c r="P15" t="n">
-        <v>0.008543148437725938</v>
+        <v>0.008563195926527836</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008543148437725938</v>
+        <v>0.008563195926527836</v>
       </c>
       <c r="R15" t="n">
-        <v>0.008543148437725938</v>
+        <v>0.008563195926527836</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008543148437725938</v>
+        <v>0.008563195926527836</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.0148308625132345</v>
+        <v>0.01468042858721714</v>
       </c>
       <c r="V15" t="n">
-        <v>0.008510121268404849</v>
+        <v>0.008568213654728546</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008510121268404849</v>
+        <v>0.008568213654728546</v>
       </c>
       <c r="X15" t="n">
-        <v>0.008510121268404849</v>
+        <v>0.008568213654728546</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.008510121268404849</v>
+        <v>0.008568213654728546</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1710,10 +1710,10 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>-0.009232133553285341</v>
+        <v>-0.009239488017579518</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01449728045189121</v>
+        <v>0.01387110113084404</v>
       </c>
     </row>
     <row r="16">
@@ -1728,11 +1728,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.08578372903134916</v>
+        <v>0.08487712851508512</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.01420557666422306</v>
+        <v>-0.01377052480682099</v>
       </c>
       <c r="F16" t="n">
         <v>-0.01884602091384084</v>
@@ -1745,48 +1745,48 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-0.02265974586638983</v>
+        <v>-0.02271025732441029</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.02111028055641122</v>
+        <v>-0.02112116945284678</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-0.01113000582120023</v>
+        <v>-0.01113159951726398</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01185487029944135</v>
+        <v>-0.01273467885963072</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0314499900579996</v>
+        <v>0.03076164910246596</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0314499900579996</v>
+        <v>0.03076164910246596</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0314499900579996</v>
+        <v>0.03076164910246596</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0314499900579996</v>
+        <v>0.03076164910246596</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0314499900579996</v>
+        <v>0.03076164910246596</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.02701373944854957</v>
+        <v>0.02678985217559408</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03151935716477428</v>
+        <v>0.03081635172865407</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03151935716477428</v>
+        <v>0.03081635172865407</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03151935716477428</v>
+        <v>0.03081635172865407</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03151935716477428</v>
+        <v>0.03081635172865407</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1794,10 +1794,10 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>0.0384974325158973</v>
+        <v>0.03850072435602897</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04525343585813743</v>
+        <v>0.05133696963747877</v>
       </c>
     </row>
     <row r="17">
@@ -1812,11 +1812,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02400633667225346</v>
+        <v>-0.02401433232057329</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.02041320657652826</v>
+        <v>0.02041823025672921</v>
       </c>
       <c r="F17" t="n">
         <v>-0.009008165352326614</v>
@@ -1829,48 +1829,48 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.007796822999872918</v>
+        <v>-0.007809709848388393</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.006034946737397869</v>
+        <v>-0.006071942354877694</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-0.00184389175375567</v>
+        <v>-0.001846780393871215</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02203114155608667</v>
+        <v>-0.02195245652160539</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01155347038213881</v>
+        <v>0.01120397689615907</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01155347038213881</v>
+        <v>0.01120397689615907</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01155347038213881</v>
+        <v>0.01120397689615907</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01155347038213881</v>
+        <v>0.01120397689615907</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01155347038213881</v>
+        <v>0.01120397689615907</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>0.01078543041541721</v>
+        <v>0.01067921380316855</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01161971038478841</v>
+        <v>0.01121628428865137</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01161971038478841</v>
+        <v>0.01121628428865137</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01161971038478841</v>
+        <v>0.01121628428865137</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01161971038478841</v>
+        <v>0.01121628428865137</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -1878,10 +1878,10 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>-0.01751712847668514</v>
+        <v>-0.01751863990074559</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.01817301903092076</v>
+        <v>-0.01851779949271198</v>
       </c>
     </row>
     <row r="18">
@@ -1896,11 +1896,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.00879257967991421</v>
+        <v>0.008787187551698395</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.006292243595840759</v>
+        <v>-0.00630660030041537</v>
       </c>
       <c r="F18" t="n">
         <v>-0.001199423712005735</v>
@@ -1913,48 +1913,48 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.008923520181154974</v>
+        <v>0.008919052436976155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01079550624007934</v>
+        <v>0.01081292520077652</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-0.005164126238688988</v>
+        <v>-0.005164488350703482</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02100151367614938</v>
+        <v>0.02063302650422845</v>
       </c>
       <c r="O18" t="n">
-        <v>3.999840160089603e-07</v>
+        <v>0.0001821719112912486</v>
       </c>
       <c r="P18" t="n">
-        <v>3.999840160089603e-07</v>
+        <v>0.0001821719112912486</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.999840160089603e-07</v>
+        <v>0.0001821719112912486</v>
       </c>
       <c r="R18" t="n">
-        <v>3.999840160089603e-07</v>
+        <v>0.0001821719112912486</v>
       </c>
       <c r="S18" t="n">
-        <v>3.999840160089603e-07</v>
+        <v>0.0001821719112912486</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.002482202259347663</v>
+        <v>0.002610230696471874</v>
       </c>
       <c r="V18" t="n">
-        <v>-1.043808041777373e-05</v>
+        <v>0.0001731037509283045</v>
       </c>
       <c r="W18" t="n">
-        <v>-1.043808041777373e-05</v>
+        <v>0.0001731037509283045</v>
       </c>
       <c r="X18" t="n">
-        <v>-1.043808041777373e-05</v>
+        <v>0.0001731037509283045</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.043808041777373e-05</v>
+        <v>0.0001731037509283045</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -1962,10 +1962,10 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>0.002355301198268575</v>
+        <v>0.002355381070271772</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.01243637579375351</v>
+        <v>-0.01112115274911302</v>
       </c>
     </row>
     <row r="19">
@@ -1980,11 +1980,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01440745872168146</v>
+        <v>0.01442450841836509</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.01420176296943389</v>
+        <v>-0.01421285960987882</v>
       </c>
       <c r="F19" t="n">
         <v>0.004566769527109191</v>
@@ -1997,48 +1997,48 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.001564126718715225</v>
+        <v>0.00158754889565436</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002399671200217216</v>
+        <v>0.002417941824949795</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-0.007690312820350783</v>
+        <v>-0.007689972884337153</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01122935547261063</v>
+        <v>0.009923025373627626</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.004120669125222349</v>
+        <v>-0.004293083788135488</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.004120669125222349</v>
+        <v>-0.004293083788135488</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.004120669125222349</v>
+        <v>-0.004293083788135488</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.004120669125222349</v>
+        <v>-0.004293083788135488</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.004120669125222349</v>
+        <v>-0.004293083788135488</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>-0.008319188781566194</v>
+        <v>-0.008277713323903193</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.004072738339300517</v>
+        <v>-0.004243084490130716</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.004072738339300517</v>
+        <v>-0.004243084490130716</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.004072738339300517</v>
+        <v>-0.004243084490130716</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.004072738339300517</v>
+        <v>-0.004243084490130716</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>0.005821099913402822</v>
+        <v>0.005824045577520931</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.00150531999635731</v>
+        <v>0.001425778617168019</v>
       </c>
     </row>
     <row r="20">
@@ -2064,11 +2064,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3469215530448621</v>
+        <v>-0.3473066039722641</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.1361129462125178</v>
+        <v>0.1362820729712829</v>
       </c>
       <c r="F20" t="n">
         <v>0.03294166163766647</v>
@@ -2081,48 +2081,48 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.003160260798410431</v>
+        <v>-0.003219360896774435</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.002149136725965469</v>
+        <v>-0.002187969303518771</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.0256064799042592</v>
+        <v>0.02560554774422191</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01050162441494877</v>
+        <v>0.009163005512488925</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.02333585891743435</v>
+        <v>-0.02350496935619877</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.02333585891743435</v>
+        <v>-0.02350496935619877</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.02333585891743435</v>
+        <v>-0.02350496935619877</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.02333585891743435</v>
+        <v>-0.02350496935619877</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.02333585891743435</v>
+        <v>-0.02350496935619877</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>-0.01424031052161242</v>
+        <v>-0.01427891529115661</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.02338540058341602</v>
+        <v>-0.02353095713323828</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.02338540058341602</v>
+        <v>-0.02353095713323828</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.02338540058341602</v>
+        <v>-0.02353095713323828</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.02338540058341602</v>
+        <v>-0.02353095713323828</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>0.02310732678029307</v>
+        <v>0.02310479737219189</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01894976370199055</v>
+        <v>0.01531941987677679</v>
       </c>
     </row>
     <row r="21">
@@ -2148,11 +2148,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0194257276890291</v>
+        <v>-0.01943057607322304</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.01683910886556435</v>
+        <v>0.01685159357006374</v>
       </c>
       <c r="F21" t="n">
         <v>-0.00985307300212292</v>
@@ -2165,48 +2165,48 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-0.01928790797151632</v>
+        <v>-0.01929502675580107</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01746256159450246</v>
+        <v>-0.01747028162681127</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-0.002399923487996939</v>
+        <v>-0.002401233600049344</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01111785070280112</v>
+        <v>-0.01119476759404885</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01845648477025939</v>
+        <v>0.01839483097579324</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01845648477025939</v>
+        <v>0.01839483097579324</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01845648477025939</v>
+        <v>0.01839483097579324</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01845648477025939</v>
+        <v>0.01839483097579324</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01845648477025939</v>
+        <v>0.01839483097579324</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.01342336277693451</v>
+        <v>0.01347949925917997</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01846676973067079</v>
+        <v>0.01845859408234376</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01846676973067079</v>
+        <v>0.01845859408234376</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01846676973067079</v>
+        <v>0.01845859408234376</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01846676973067079</v>
+        <v>0.01845859408234376</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -2214,10 +2214,10 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>-0.007164318718572748</v>
+        <v>-0.007164354718574188</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.002520787876831515</v>
+        <v>-0.003098938779957551</v>
       </c>
     </row>
     <row r="22">
@@ -2232,11 +2232,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03379320989572839</v>
+        <v>-0.03379014970360598</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.0219916700316668</v>
+        <v>0.02199246049569841</v>
       </c>
       <c r="F22" t="n">
         <v>-0.01864412637776505</v>
@@ -2249,48 +2249,48 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0.004371847854873914</v>
+        <v>0.004289447595577903</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0008329256973170278</v>
+        <v>-0.0008934045477361817</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-0.01998004659120186</v>
+        <v>-0.0199826850553074</v>
       </c>
       <c r="N22" t="n">
-        <v>0.005170730583529656</v>
+        <v>0.00694390932127081</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00708467327538693</v>
+        <v>0.006714450412578016</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00708467327538693</v>
+        <v>0.006714450412578016</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00708467327538693</v>
+        <v>0.006714450412578016</v>
       </c>
       <c r="R22" t="n">
-        <v>0.00708467327538693</v>
+        <v>0.006714450412578016</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00708467327538693</v>
+        <v>0.006714450412578016</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.006034883185395326</v>
+        <v>0.006000000912000036</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0071150325086013</v>
+        <v>0.006719301196772047</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0071150325086013</v>
+        <v>0.006719301196772047</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0071150325086013</v>
+        <v>0.006719301196772047</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0071150325086013</v>
+        <v>0.006719301196772047</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -2298,10 +2298,10 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>-0.02137959301518372</v>
+        <v>-0.02137822347912894</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.02020071421602856</v>
+        <v>-0.01761030627241225</v>
       </c>
     </row>
     <row r="23">
@@ -2316,11 +2316,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.00202277576091103</v>
+        <v>0.002011075472443018</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.005903336972133478</v>
+        <v>-0.005907672332306893</v>
       </c>
       <c r="F23" t="n">
         <v>-0.008735684605427382</v>
@@ -2333,48 +2333,48 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.03833112105324483</v>
+        <v>0.03831716639668665</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0243531027021241</v>
+        <v>0.02437586929503477</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-0.01224581079383243</v>
+        <v>-0.01224517901780716</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0122429190271227</v>
+        <v>0.01300307888013178</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.004158957094358284</v>
+        <v>-0.00446315077052603</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.004158957094358284</v>
+        <v>-0.00446315077052603</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.004158957094358284</v>
+        <v>-0.00446315077052603</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.004158957094358284</v>
+        <v>-0.00446315077052603</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.004158957094358284</v>
+        <v>-0.00446315077052603</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>-0.005093387627735505</v>
+        <v>-0.005055868234234729</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.004061473602458944</v>
+        <v>-0.004338396653535866</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.004061473602458944</v>
+        <v>-0.004338396653535866</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.004061473602458944</v>
+        <v>-0.004338396653535866</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.004061473602458944</v>
+        <v>-0.004338396653535866</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>0.004556001206240048</v>
+        <v>0.004559629910385195</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.008692281275691251</v>
+        <v>0.007369473414778936</v>
       </c>
     </row>
     <row r="24">
@@ -2400,11 +2400,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.0156255549610222</v>
+        <v>-0.01562359579294383</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.01184404972176199</v>
+        <v>0.01184219730568789</v>
       </c>
       <c r="F24" t="n">
         <v>-0.01263725896949036</v>
@@ -2417,48 +2417,48 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>0.0510183476407339</v>
+        <v>0.05102028472881139</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02003395347335814</v>
+        <v>0.02001999641679986</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-0.008957713894308555</v>
+        <v>-0.008956945126277803</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01733577867757707</v>
+        <v>0.01764785195664304</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01239703230388129</v>
+        <v>0.01237454775898191</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01239703230388129</v>
+        <v>0.01237454775898191</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01239703230388129</v>
+        <v>0.01237454775898191</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01239703230388129</v>
+        <v>0.01237454775898191</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01239703230388129</v>
+        <v>0.01237454775898191</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>-0.00129132600365304</v>
+        <v>-0.0009303589812143592</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01251396722055869</v>
+        <v>0.01249463310778532</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01251396722055869</v>
+        <v>0.01249463310778532</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01251396722055869</v>
+        <v>0.01249463310778532</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01251396722055869</v>
+        <v>0.01249463310778532</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="n">
-        <v>-0.003592032431681297</v>
+        <v>-0.003588565967542638</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.002165492726619709</v>
+        <v>-0.004023273664930945</v>
       </c>
     </row>
     <row r="25">
@@ -2480,11 +2480,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.000115494724619789</v>
+        <v>-0.0001099886443995458</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.00485370576214823</v>
+        <v>0.004866254210650168</v>
       </c>
       <c r="F25" t="n">
         <v>-0.0007343368613734743</v>
@@ -2497,48 +2497,48 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-0.01500744520829781</v>
+        <v>-0.0151270924130837</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.004794659711786388</v>
+        <v>-0.004883734563349382</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>0.0005072365642894625</v>
+        <v>0.0005048643081945722</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01446962881335813</v>
+        <v>-0.01399160562220918</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004977560551102421</v>
+        <v>0.005603014592120583</v>
       </c>
       <c r="P25" t="n">
-        <v>0.004977560551102421</v>
+        <v>0.005603014592120583</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.004977560551102421</v>
+        <v>0.005603014592120583</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004977560551102421</v>
+        <v>0.005603014592120583</v>
       </c>
       <c r="S25" t="n">
-        <v>0.004977560551102421</v>
+        <v>0.005603014592120583</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.004288271883530875</v>
+        <v>0.004495478387819135</v>
       </c>
       <c r="V25" t="n">
-        <v>0.004874440898977635</v>
+        <v>0.005558811678352467</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004874440898977635</v>
+        <v>0.005558811678352467</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004874440898977635</v>
+        <v>0.005558811678352467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.004874440898977635</v>
+        <v>0.005558811678352467</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2546,10 +2546,10 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>-0.004522802484912099</v>
+        <v>-0.004530069493202779</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.003573881998955279</v>
+        <v>0.00986738804269552</v>
       </c>
     </row>
     <row r="26">
@@ -2564,11 +2564,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.002630633289225331</v>
+        <v>0.002633423145336926</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.00856584725463389</v>
+        <v>0.008561542710461709</v>
       </c>
       <c r="F26" t="n">
         <v>-0.007668122898724915</v>
@@ -2581,48 +2581,48 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>-0.0248280826891233</v>
+        <v>-0.02482389660895586</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.03268802655552106</v>
+        <v>-0.03268744095549763</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-0.01323835099353404</v>
+        <v>-0.01323521179340847</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.009295189457014547</v>
+        <v>-0.01085906203216178</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01469902589996103</v>
+        <v>0.01453215552528622</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01469902589996103</v>
+        <v>0.01453215552528622</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01469902589996103</v>
+        <v>0.01453215552528622</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01469902589996103</v>
+        <v>0.01453215552528622</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01469902589996103</v>
+        <v>0.01453215552528622</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.006948754645950185</v>
+        <v>0.006935830645433224</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01470561706822468</v>
+        <v>0.01456241280649651</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01470561706822468</v>
+        <v>0.01456241280649651</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01470561706822468</v>
+        <v>0.01456241280649651</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01470561706822468</v>
+        <v>0.01456241280649651</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>-0.01007115803484632</v>
+        <v>-0.01007011969880479</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.006681960459278417</v>
+        <v>0.005862094410483776</v>
       </c>
     </row>
     <row r="27">
@@ -2648,11 +2648,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.00969170832366833</v>
+        <v>0.009710242660409703</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.02371391461255658</v>
+        <v>-0.02372390120495605</v>
       </c>
       <c r="F27" t="n">
         <v>0.02545910588236423</v>
@@ -2665,48 +2665,48 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-0.01367489565099582</v>
+        <v>-0.01373854298154172</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.001138418925536757</v>
+        <v>-0.001154256622170265</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0.02173246464529858</v>
+        <v>0.02172889526915581</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.009959388975135418</v>
+        <v>-0.0105878337520727</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.02901744682469787</v>
+        <v>-0.02887448237097929</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.02901744682469787</v>
+        <v>-0.02887448237097929</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02901744682469787</v>
+        <v>-0.02887448237097929</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02901744682469787</v>
+        <v>-0.02887448237097929</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.02901744682469787</v>
+        <v>-0.02887448237097929</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>-0.01719644487985779</v>
+        <v>-0.01715915137436605</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.02903816112952644</v>
+        <v>-0.02891643437265737</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.02903816112952644</v>
+        <v>-0.02891643437265737</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.02903816112952644</v>
+        <v>-0.02891643437265737</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.02903816112952644</v>
+        <v>-0.02891643437265737</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2714,10 +2714,10 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
-        <v>0.01949886327595453</v>
+        <v>0.01950216154808646</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0227893150555726</v>
+        <v>0.02693797240551889</v>
       </c>
     </row>
     <row r="28">
@@ -2728,11 +2728,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02033038458921538</v>
+        <v>0.02034770481390819</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-0.01670200972408039</v>
+        <v>-0.01670476367619055</v>
       </c>
       <c r="F28" t="n">
         <v>0.0007020176920807075</v>
@@ -2745,48 +2745,48 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-0.004796131487845258</v>
+        <v>-0.004769771230790848</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.01393556791742272</v>
+        <v>-0.01390817374032695</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>0.0005083481483339259</v>
+        <v>0.000506818676272747</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002865372839210366</v>
+        <v>0.00542801877416241</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.006676942443077696</v>
+        <v>-0.007139688669587545</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.006676942443077696</v>
+        <v>-0.007139688669587545</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.006676942443077696</v>
+        <v>-0.007139688669587545</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.006676942443077696</v>
+        <v>-0.007139688669587545</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.006676942443077696</v>
+        <v>-0.007139688669587545</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>-0.01470993274839731</v>
+        <v>-0.01495885221435408</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.006594346919773875</v>
+        <v>-0.007093992667759705</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.006594346919773875</v>
+        <v>-0.007093992667759705</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.006594346919773875</v>
+        <v>-0.007093992667759705</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.006594346919773875</v>
+        <v>-0.007093992667759705</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2794,10 +2794,10 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>0.0185339226933569</v>
+        <v>0.01853418131736725</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.03360091113603644</v>
+        <v>0.02315420819016832</v>
       </c>
     </row>
     <row r="29">
@@ -2808,11 +2808,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.002096841875873675</v>
+        <v>0.002080458227218329</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.001020270280810811</v>
+        <v>-0.001003143880125755</v>
       </c>
       <c r="F29" t="n">
         <v>0.008893534051741361</v>
@@ -2825,48 +2825,48 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>0.01346983522679341</v>
+        <v>0.01347091561083662</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.001573614494944579</v>
+        <v>-0.00157407049496282</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>0.01416621963864879</v>
+        <v>0.01416675051867002</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.01055787472796082</v>
+        <v>-0.008789484686628171</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0126480374659215</v>
+        <v>-0.01269014287560571</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0126480374659215</v>
+        <v>-0.01269014287560571</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.0126480374659215</v>
+        <v>-0.01269014287560571</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0126480374659215</v>
+        <v>-0.01269014287560571</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.0126480374659215</v>
+        <v>-0.01269014287560571</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>-0.01420807842432313</v>
+        <v>-0.01401717790468711</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.012561674902467</v>
+        <v>-0.012605399928216</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.012561674902467</v>
+        <v>-0.012605399928216</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.012561674902467</v>
+        <v>-0.012605399928216</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.012561674902467</v>
+        <v>-0.012605399928216</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>0.006860468722418748</v>
+        <v>0.006862511410500456</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.001241479825659193</v>
+        <v>-0.005317818740712749</v>
       </c>
     </row>
     <row r="30">
@@ -2888,11 +2888,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.006506658692266347</v>
+        <v>-0.006501763844070552</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.008896506499860259</v>
+        <v>0.008901430916057235</v>
       </c>
       <c r="F30" t="n">
         <v>-0.005696064035842561</v>
@@ -2905,48 +2905,48 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.01020751624830065</v>
+        <v>-0.01022773519310941</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.008482214931288597</v>
+        <v>-0.008517856372714253</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-0.0001584870783394831</v>
+        <v>-0.0001630808705232348</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01216941667571776</v>
+        <v>0.01339957743114283</v>
       </c>
       <c r="O30" t="n">
-        <v>0.002276752219070088</v>
+        <v>0.002091042611641704</v>
       </c>
       <c r="P30" t="n">
-        <v>0.002276752219070088</v>
+        <v>0.002091042611641704</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002276752219070088</v>
+        <v>0.002091042611641704</v>
       </c>
       <c r="R30" t="n">
-        <v>0.002276752219070088</v>
+        <v>0.002091042611641704</v>
       </c>
       <c r="S30" t="n">
-        <v>0.002276752219070088</v>
+        <v>0.002091042611641704</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.008369872366794893</v>
+        <v>0.008135351461414057</v>
       </c>
       <c r="V30" t="n">
-        <v>0.002176501431060057</v>
+        <v>0.002050224082008963</v>
       </c>
       <c r="W30" t="n">
-        <v>0.002176501431060057</v>
+        <v>0.002050224082008963</v>
       </c>
       <c r="X30" t="n">
-        <v>0.002176501431060057</v>
+        <v>0.002050224082008963</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.002176501431060057</v>
+        <v>0.002050224082008963</v>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2954,10 +2954,10 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>-0.01258672024746881</v>
+        <v>-0.01258701544748062</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.004825224001008959</v>
+        <v>-0.01267479564299182</v>
       </c>
     </row>
     <row r="31">
@@ -2972,11 +2972,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02472924598116983</v>
+        <v>0.02475643299025732</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.01855683424627337</v>
+        <v>-0.01857562115902484</v>
       </c>
       <c r="F31" t="n">
         <v>0.01170334702813388</v>
@@ -2989,48 +2989,48 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-0.006657717194308687</v>
+        <v>-0.00662725226509009</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01232838289313531</v>
+        <v>-0.01230740938829637</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>0.007186876511475059</v>
+        <v>0.00718876876755075</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004827248665695351</v>
+        <v>0.003523701654283336</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.01697063069482523</v>
+        <v>-0.01726235224249409</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.01697063069482523</v>
+        <v>-0.01726235224249409</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.01697063069482523</v>
+        <v>-0.01726235224249409</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.01697063069482523</v>
+        <v>-0.01726235224249409</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.01697063069482523</v>
+        <v>-0.01726235224249409</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>-0.02318721039948841</v>
+        <v>-0.02324954406598176</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.01688038109121524</v>
+        <v>-0.01720015432000617</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.01688038109121524</v>
+        <v>-0.01720015432000617</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.01688038109121524</v>
+        <v>-0.01720015432000617</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.01688038109121524</v>
+        <v>-0.01720015432000617</v>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
@@ -3038,10 +3038,10 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
-        <v>0.01113146118125845</v>
+        <v>0.01112699276507971</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.01449185731567429</v>
+        <v>-0.01208180198727208</v>
       </c>
     </row>
     <row r="32">
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0100493050739722</v>
+        <v>0.01008896661155866</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.006467399010695959</v>
+        <v>-0.006470605410824217</v>
       </c>
       <c r="F32" t="n">
         <v>0.00373125576525023</v>
@@ -3069,48 +3069,48 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0.006228434169137366</v>
+        <v>0.006246294873851794</v>
       </c>
       <c r="K32" t="n">
-        <v>0.007613008432520336</v>
+        <v>0.007619429584777182</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-0.001775774183030967</v>
+        <v>-0.001771850662874026</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.003956667071693682</v>
+        <v>-0.002541300055976491</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.005438797561551902</v>
+        <v>-0.005382325943293036</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.005438797561551902</v>
+        <v>-0.005382325943293036</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.005438797561551902</v>
+        <v>-0.005382325943293036</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.005438797561551902</v>
+        <v>-0.005382325943293036</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.005438797561551902</v>
+        <v>-0.005382325943293036</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.001177984175119367</v>
+        <v>0.001172193934887757</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.005496878619875144</v>
+        <v>-0.005437619545504781</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.005496878619875144</v>
+        <v>-0.005437619545504781</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.005496878619875144</v>
+        <v>-0.005437619545504781</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.005496878619875144</v>
+        <v>-0.005437619545504781</v>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
@@ -3118,10 +3118,10 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>0.003630246577209863</v>
+        <v>0.00362616052904642</v>
       </c>
       <c r="AF32" t="n">
-        <v>-0.01253468469338739</v>
+        <v>-0.01358501929540077</v>
       </c>
     </row>
     <row r="33">
@@ -3136,11 +3136,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02322894064115762</v>
+        <v>0.02322433177697327</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.02097067552682702</v>
+        <v>-0.02096942157477686</v>
       </c>
       <c r="F33" t="n">
         <v>0.007025319449012776</v>
@@ -3153,48 +3153,48 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>0.01311400161256006</v>
+        <v>0.01316688023867521</v>
       </c>
       <c r="K33" t="n">
-        <v>0.002836963313478532</v>
+        <v>0.002860510674420426</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0.008283359179334366</v>
+        <v>0.008287741195509646</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01224269957083784</v>
+        <v>-0.01272337614129172</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.01508415516336621</v>
+        <v>-0.01556356161454246</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01508415516336621</v>
+        <v>-0.01556356161454246</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01508415516336621</v>
+        <v>-0.01556356161454246</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01508415516336621</v>
+        <v>-0.01556356161454246</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01508415516336621</v>
+        <v>-0.01556356161454246</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>-0.02328209574728382</v>
+        <v>-0.02348141642725666</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.01501277378451095</v>
+        <v>-0.01548173073126923</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.01501277378451095</v>
+        <v>-0.01548173073126923</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01501277378451095</v>
+        <v>-0.01548173073126923</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.01501277378451095</v>
+        <v>-0.01548173073126923</v>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -3202,10 +3202,10 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="n">
-        <v>0.02196975659079026</v>
+        <v>0.02197616478304659</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.003209318624372745</v>
+        <v>-0.00477273100690924</v>
       </c>
     </row>
     <row r="34">
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.005418123288724931</v>
+        <v>0.005404803672192146</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.01279777692791107</v>
+        <v>-0.01279288716771548</v>
       </c>
       <c r="F34" t="n">
         <v>0.01571443339657733</v>
@@ -3233,48 +3233,48 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>0.009298617491944699</v>
+        <v>0.009266235922649435</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0101663349346534</v>
+        <v>-0.01019553650382146</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.01354680956587238</v>
+        <v>0.01354783782191351</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.01037921734406626</v>
+        <v>-0.009756853913864459</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.01548446980337879</v>
+        <v>-0.01602202163288086</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.01548446980337879</v>
+        <v>-0.01602202163288086</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01548446980337879</v>
+        <v>-0.01602202163288086</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01548446980337879</v>
+        <v>-0.01602202163288086</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.01548446980337879</v>
+        <v>-0.01602202163288086</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>-0.01874991742199669</v>
+        <v>-0.01874802046192081</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.01533045661321826</v>
+        <v>-0.0158639676105587</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01533045661321826</v>
+        <v>-0.0158639676105587</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.01533045661321826</v>
+        <v>-0.0158639676105587</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.01533045661321826</v>
+        <v>-0.0158639676105587</v>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3282,10 +3282,10 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>0.01232665172506607</v>
+        <v>0.01232479038099161</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.009126350765054029</v>
+        <v>0.01039639049585562</v>
       </c>
     </row>
     <row r="35">
@@ -3300,11 +3300,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03846734333069373</v>
+        <v>-0.03874598478183939</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.08661188103247523</v>
+        <v>-0.08658686650347464</v>
       </c>
       <c r="F35" t="n">
         <v>-0.006794670511786819</v>
@@ -3317,48 +3317,48 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.1061157714446309</v>
+        <v>-0.1067771874710875</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3912686954907477</v>
+        <v>0.3908560900662436</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>0.06008017363520694</v>
+        <v>0.06006421123456844</v>
       </c>
       <c r="N35" t="n">
-        <v>0.008114221940136669</v>
+        <v>0.009537802659968862</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.01595087276603491</v>
+        <v>-0.008195593575823742</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.01595087276603491</v>
+        <v>-0.008195593575823742</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01595087276603491</v>
+        <v>-0.008195593575823742</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01595087276603491</v>
+        <v>-0.008195593575823742</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.01595087276603491</v>
+        <v>-0.008195593575823742</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.2725308060052322</v>
+        <v>0.2718536694981468</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.01914207446168298</v>
+        <v>-0.01165283240211329</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.01914207446168298</v>
+        <v>-0.01165283240211329</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.01914207446168298</v>
+        <v>-0.01165283240211329</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.01914207446168298</v>
+        <v>-0.01165283240211329</v>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>0.03847776893111075</v>
+        <v>0.03844552156982086</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0250050901842036</v>
+        <v>0.03212183706087348</v>
       </c>
     </row>
     <row r="36">
@@ -3380,11 +3380,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.01290428211617128</v>
+        <v>-0.01290334861213394</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.01457979427919177</v>
+        <v>0.01456005389440215</v>
       </c>
       <c r="F36" t="n">
         <v>-0.009677241507089658</v>
@@ -3397,48 +3397,48 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.007363387782535509</v>
+        <v>0.007362637446505498</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01043081292923251</v>
+        <v>0.01044000617760025</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-0.004634197145367885</v>
+        <v>-0.004634817113392684</v>
       </c>
       <c r="N36" t="n">
-        <v>-6.736703144138223e-05</v>
+        <v>-0.0007049606703361971</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01158548955141958</v>
+        <v>0.01181012629640505</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01158548955141958</v>
+        <v>0.01181012629640505</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01158548955141958</v>
+        <v>0.01181012629640505</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01158548955141958</v>
+        <v>0.01181012629640505</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01158548955141958</v>
+        <v>0.01181012629640505</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.01150797905231916</v>
+        <v>0.0117873074794923</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01161374628854985</v>
+        <v>0.01182982712919308</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01161374628854985</v>
+        <v>0.01182982712919308</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01161374628854985</v>
+        <v>0.01182982712919308</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01161374628854985</v>
+        <v>0.01182982712919308</v>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3446,10 +3446,10 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="n">
-        <v>-0.01336566235862649</v>
+        <v>-0.01336769784670791</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.0009291139571645581</v>
+        <v>-0.00103692349747694</v>
       </c>
     </row>
     <row r="37">
@@ -3464,11 +3464,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1159202928288117</v>
+        <v>0.1159478108459124</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.05971089445243577</v>
+        <v>-0.05974104862964194</v>
       </c>
       <c r="F37" t="n">
         <v>0.007153504318140171</v>
@@ -3481,48 +3481,48 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>0.2763624220944969</v>
+        <v>0.2771027163321086</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1791688089267524</v>
+        <v>0.179670300754812</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-0.04244378588975143</v>
+        <v>-0.04242144716885788</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2424691435052606</v>
+        <v>0.2429805388770704</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.02098638093545524</v>
+        <v>-0.02244288483371539</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02098638093545524</v>
+        <v>-0.02244288483371539</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.02098638093545524</v>
+        <v>-0.02244288483371539</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02098638093545524</v>
+        <v>-0.02244288483371539</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.02098638093545524</v>
+        <v>-0.02244288483371539</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>-0.0485224424848977</v>
+        <v>-0.04862919112916764</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.02049034027561361</v>
+        <v>-0.02197339239893569</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.02049034027561361</v>
+        <v>-0.02197339239893569</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.02049034027561361</v>
+        <v>-0.02197339239893569</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.02049034027561361</v>
+        <v>-0.02197339239893569</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
-        <v>0.03027069461882778</v>
+        <v>0.03030928930837157</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.03364585536183421</v>
+        <v>0.04130393157215726</v>
       </c>
     </row>
     <row r="38">
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1966101706484068</v>
+        <v>0.1966211384568455</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>-0.07008558069142323</v>
+        <v>-0.07010250952410037</v>
       </c>
       <c r="F38" t="n">
         <v>-0.0240644200345768</v>
@@ -3561,48 +3561,48 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.03161283400051336</v>
+        <v>-0.03153965530958621</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.004460222674408907</v>
+        <v>-0.004440342225613688</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-0.1489877151435086</v>
+        <v>-0.1489818875592755</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0006084575737686767</v>
+        <v>-0.0005426735204534032</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01738775743151029</v>
+        <v>0.01845020291400811</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01738775743151029</v>
+        <v>0.01845020291400811</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01738775743151029</v>
+        <v>0.01845020291400811</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01738775743151029</v>
+        <v>0.01845020291400811</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01738775743151029</v>
+        <v>0.01845020291400811</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.03400687230427488</v>
+        <v>0.03411732750869309</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01719082983963319</v>
+        <v>0.01826464124258565</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01719082983963319</v>
+        <v>0.01826464124258565</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01719082983963319</v>
+        <v>0.01826464124258565</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01719082983963319</v>
+        <v>0.01826464124258565</v>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3610,10 +3610,10 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>-0.008133024133320964</v>
+        <v>-0.008125733893029355</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.02745339450613577</v>
+        <v>0.02811635114065405</v>
       </c>
     </row>
     <row r="39">
@@ -3628,11 +3628,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01727525051501002</v>
+        <v>0.01731353646854146</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>0.01396971454278858</v>
+        <v>0.01395107854204314</v>
       </c>
       <c r="F39" t="n">
         <v>-0.005446535833861433</v>
@@ -3645,48 +3645,48 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.03791150206046007</v>
+        <v>0.03788973530758941</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.00568411875536475</v>
+        <v>-0.005676350723054028</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-0.01454581085383243</v>
+        <v>-0.01454815709392628</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03421929265612143</v>
+        <v>0.03407977837072312</v>
       </c>
       <c r="O39" t="n">
-        <v>0.006730988141239524</v>
+        <v>0.006134871893394875</v>
       </c>
       <c r="P39" t="n">
-        <v>0.006730988141239524</v>
+        <v>0.006134871893394875</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006730988141239524</v>
+        <v>0.006134871893394875</v>
       </c>
       <c r="R39" t="n">
-        <v>0.006730988141239524</v>
+        <v>0.006134871893394875</v>
       </c>
       <c r="S39" t="n">
-        <v>0.006730988141239524</v>
+        <v>0.006134871893394875</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>-0.01265424319416973</v>
+        <v>-0.01269730572389223</v>
       </c>
       <c r="V39" t="n">
-        <v>0.006979145751165829</v>
+        <v>0.006359752190390087</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006979145751165829</v>
+        <v>0.006359752190390087</v>
       </c>
       <c r="X39" t="n">
-        <v>0.006979145751165829</v>
+        <v>0.006359752190390087</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.006979145751165829</v>
+        <v>0.006359752190390087</v>
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3694,10 +3694,10 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="n">
-        <v>-0.02066545743461829</v>
+        <v>-0.02066768501870739</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.02127908600316344</v>
+        <v>-0.02329398342775934</v>
       </c>
     </row>
     <row r="40">
@@ -3712,11 +3712,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.02332048682081947</v>
+        <v>-0.02329308937972357</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>0.02561354176054167</v>
+        <v>0.02561103817644152</v>
       </c>
       <c r="F40" t="n">
         <v>-0.02365590517023621</v>
@@ -3729,48 +3729,48 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.01276451302258052</v>
+        <v>-0.01276751945470078</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.01871157310046292</v>
+        <v>-0.01870496839619874</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-0.02586555866662234</v>
+        <v>-0.02586362945054518</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005120994262972668</v>
+        <v>0.006589385671510497</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02209570062782802</v>
+        <v>0.02124504881780195</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02209570062782802</v>
+        <v>0.02124504881780195</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02209570062782802</v>
+        <v>0.02124504881780195</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02209570062782802</v>
+        <v>0.02124504881780195</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02209570062782802</v>
+        <v>0.02124504881780195</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.01181821400872856</v>
+        <v>0.01158389767935591</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02219598655183946</v>
+        <v>0.02136917461476698</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02219598655183946</v>
+        <v>0.02136917461476698</v>
       </c>
       <c r="X40" t="n">
-        <v>0.02219598655183946</v>
+        <v>0.02136917461476698</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02219598655183946</v>
+        <v>0.02136917461476698</v>
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3778,10 +3778,10 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="n">
-        <v>-0.02597301127892045</v>
+        <v>-0.0259672227666889</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.02217712591108503</v>
+        <v>0.01353285193331408</v>
       </c>
     </row>
     <row r="41">
@@ -3796,11 +3796,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.009733242341329692</v>
+        <v>-0.009719608996784359</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>0.01431095913243836</v>
+        <v>0.01430538940421557</v>
       </c>
       <c r="F41" t="n">
         <v>-0.01147345927493837</v>
@@ -3813,48 +3813,48 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0.01025451650618066</v>
+        <v>0.01026782316271293</v>
       </c>
       <c r="K41" t="n">
-        <v>0.008763816446552657</v>
+        <v>0.008783468223338729</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>-0.009924573132982926</v>
+        <v>-0.009923482860939312</v>
       </c>
       <c r="N41" t="n">
-        <v>0.004941102605476033</v>
+        <v>0.002599214769448993</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01491284805251392</v>
+        <v>0.01546438717857548</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01491284805251392</v>
+        <v>0.01546438717857548</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01491284805251392</v>
+        <v>0.01546438717857548</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01491284805251392</v>
+        <v>0.01546438717857548</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01491284805251392</v>
+        <v>0.01546438717857548</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.01145636887425475</v>
+        <v>0.01178784719151388</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01489668136386725</v>
+        <v>0.01545424717816988</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01489668136386725</v>
+        <v>0.01545424717816988</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01489668136386725</v>
+        <v>0.01545424717816988</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01489668136386725</v>
+        <v>0.01545424717816988</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>-0.009577466495098658</v>
+        <v>-0.009576479327059172</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.01893687368547494</v>
+        <v>-0.0162641727145669</v>
       </c>
     </row>
     <row r="42">
@@ -3880,11 +3880,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.019143375165735</v>
+        <v>-0.01913918476556739</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>0.01352295462091818</v>
+        <v>0.01351291158051646</v>
       </c>
       <c r="F42" t="n">
         <v>-0.02040094968003798</v>
@@ -3897,48 +3897,48 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.01784913037796521</v>
+        <v>-0.01778896679155867</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.002411575200463007</v>
+        <v>-0.002367067294682691</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>-0.01627753793110151</v>
+        <v>-0.01627651044306042</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.007445041983551264</v>
+        <v>-0.005258386366961181</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02566841171473646</v>
+        <v>0.0261387449175498</v>
       </c>
       <c r="P42" t="n">
-        <v>0.02566841171473646</v>
+        <v>0.0261387449175498</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02566841171473646</v>
+        <v>0.0261387449175498</v>
       </c>
       <c r="R42" t="n">
-        <v>0.02566841171473646</v>
+        <v>0.0261387449175498</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02566841171473646</v>
+        <v>0.0261387449175498</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.02899811165592446</v>
+        <v>0.02912956849318274</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02560144585605783</v>
+        <v>0.02605339937813597</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02560144585605783</v>
+        <v>0.02605339937813597</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02560144585605783</v>
+        <v>0.02605339937813597</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02560144585605783</v>
+        <v>0.02605339937813597</v>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -3946,10 +3946,10 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="n">
-        <v>-0.01506988351479534</v>
+        <v>-0.0150689151627566</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.01758659177546367</v>
+        <v>-0.02400148905605956</v>
       </c>
     </row>
     <row r="43">
@@ -3964,11 +3964,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2113402427576097</v>
+        <v>0.2111697978227919</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>-0.1771003062520122</v>
+        <v>-0.1771195950527838</v>
       </c>
       <c r="F43" t="n">
         <v>-0.02251681990867279</v>
@@ -3981,48 +3981,48 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>0.7047958772798351</v>
+        <v>0.7052096687843866</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8642536433381455</v>
+        <v>0.8645623873184954</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>-0.07134177693367107</v>
+        <v>-0.07133094602123782</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3068971559958409</v>
+        <v>0.307834338576725</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.05015580709423227</v>
+        <v>-0.04127347557093902</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.05015580709423227</v>
+        <v>-0.04127347557093902</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.05015580709423227</v>
+        <v>-0.04127347557093902</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.05015580709423227</v>
+        <v>-0.04127347557093902</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.05015580709423227</v>
+        <v>-0.04127347557093902</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.101514700540588</v>
+        <v>0.1039469942698797</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.05167572379502894</v>
+        <v>-0.04299569595982783</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.05167572379502894</v>
+        <v>-0.04299569595982783</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.05167572379502894</v>
+        <v>-0.04299569595982783</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.05167572379502894</v>
+        <v>-0.04299569595982783</v>
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4030,10 +4030,10 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="n">
-        <v>0.07410344590813783</v>
+        <v>0.07412541608501663</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.06370536504421459</v>
+        <v>0.06730735440429417</v>
       </c>
     </row>
     <row r="44">
@@ -4048,11 +4048,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.02356403163056126</v>
+        <v>-0.02355975243039009</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>0.01805343422613737</v>
+        <v>0.01805464891418596</v>
       </c>
       <c r="F44" t="n">
         <v>0.0004356092334243693</v>
@@ -4065,48 +4065,48 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>0.00567913328316533</v>
+        <v>0.005651080258043209</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.00866456703458268</v>
+        <v>-0.00869721980388879</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>0.008043019137720764</v>
+        <v>0.008040880641635224</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.01810286911324878</v>
+        <v>-0.01935451975377771</v>
       </c>
       <c r="O44" t="n">
-        <v>0.004386622927464916</v>
+        <v>0.00419833351193334</v>
       </c>
       <c r="P44" t="n">
-        <v>0.004386622927464916</v>
+        <v>0.00419833351193334</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.004386622927464916</v>
+        <v>0.00419833351193334</v>
       </c>
       <c r="R44" t="n">
-        <v>0.004386622927464916</v>
+        <v>0.00419833351193334</v>
       </c>
       <c r="S44" t="n">
-        <v>0.004386622927464916</v>
+        <v>0.00419833351193334</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.002734142413365696</v>
+        <v>0.002705688108227524</v>
       </c>
       <c r="V44" t="n">
-        <v>0.004491125459645019</v>
+        <v>0.004282916235316648</v>
       </c>
       <c r="W44" t="n">
-        <v>0.004491125459645019</v>
+        <v>0.004282916235316648</v>
       </c>
       <c r="X44" t="n">
-        <v>0.004491125459645019</v>
+        <v>0.004282916235316648</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.004491125459645019</v>
+        <v>0.004282916235316648</v>
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -4114,10 +4114,10 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="n">
-        <v>-0.01445914608236584</v>
+        <v>-0.01446218323448733</v>
       </c>
       <c r="AF44" t="n">
-        <v>-0.01922090486483619</v>
+        <v>-0.01753593151743726</v>
       </c>
     </row>
     <row r="45">
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.003786077335443093</v>
+        <v>-0.0037501525020061</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0.01104290156171606</v>
+        <v>0.01103967394558696</v>
       </c>
       <c r="F45" t="n">
         <v>-0.006024915408996616</v>
@@ -4149,48 +4149,48 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.01434697122987885</v>
+        <v>-0.0143585526703421</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.003970416926816677</v>
+        <v>-0.003972041342881654</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>-0.00100295648811826</v>
+        <v>-0.001004566216182649</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0006795615060604996</v>
+        <v>-0.001242364552104364</v>
       </c>
       <c r="O45" t="n">
-        <v>0.006680689227227568</v>
+        <v>0.006601350216054008</v>
       </c>
       <c r="P45" t="n">
-        <v>0.006680689227227568</v>
+        <v>0.006601350216054008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.006680689227227568</v>
+        <v>0.006601350216054008</v>
       </c>
       <c r="R45" t="n">
-        <v>0.006680689227227568</v>
+        <v>0.006601350216054008</v>
       </c>
       <c r="S45" t="n">
-        <v>0.006680689227227568</v>
+        <v>0.006601350216054008</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>0.01098910575156423</v>
+        <v>0.01084448366577935</v>
       </c>
       <c r="V45" t="n">
-        <v>0.006697794123911764</v>
+        <v>0.006569190406767615</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006697794123911764</v>
+        <v>0.006569190406767615</v>
       </c>
       <c r="X45" t="n">
-        <v>0.006697794123911764</v>
+        <v>0.006569190406767615</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.006697794123911764</v>
+        <v>0.006569190406767615</v>
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="n">
-        <v>-0.01035490899019636</v>
+        <v>-0.01035267766210711</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.01403053899322156</v>
+        <v>0.006264614842584592</v>
       </c>
     </row>
     <row r="46">
@@ -4216,11 +4216,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.01279000735960029</v>
+        <v>-0.01279659833586393</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>0.003197264671890587</v>
+        <v>0.003187949215517968</v>
       </c>
       <c r="F46" t="n">
         <v>0.002265029850601194</v>
@@ -4233,48 +4233,48 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>0.0008663154586526183</v>
+        <v>0.0008594255383770215</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003060431930417277</v>
+        <v>0.003047917465916698</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>0.008383444847337792</v>
+        <v>0.008381047055241881</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02104225497652693</v>
+        <v>0.01703085250189732</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1340176786407072</v>
+        <v>0.1345785979271439</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1340176786407072</v>
+        <v>0.1345785979271439</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.1340176786407072</v>
+        <v>0.1345785979271439</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1340176786407072</v>
+        <v>0.1345785979271439</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1340176786407072</v>
+        <v>0.1345785979271439</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.09802480088099202</v>
+        <v>0.09799257502370298</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1337849684873987</v>
+        <v>0.1344645491545819</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1337849684873987</v>
+        <v>0.1344645491545819</v>
       </c>
       <c r="X46" t="n">
-        <v>0.1337849684873987</v>
+        <v>0.1344645491545819</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1337849684873987</v>
+        <v>0.1344645491545819</v>
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -4282,10 +4282,10 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>0.001042486409699456</v>
+        <v>0.001041759785670391</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.01765098157003926</v>
+        <v>-0.01693789373351575</v>
       </c>
     </row>
     <row r="47">
@@ -4300,11 +4300,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.0003712243348489734</v>
+        <v>-0.0003843401433736057</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>0.006284542715381708</v>
+        <v>0.006287637755505509</v>
       </c>
       <c r="F47" t="n">
         <v>0.002461283618451344</v>
@@ -4317,48 +4317,48 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0.00687249128289965</v>
+        <v>0.006817013840680553</v>
       </c>
       <c r="K47" t="n">
-        <v>0.003277853603114144</v>
+        <v>0.003266070562642822</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>0.004297435179897406</v>
+        <v>0.00429572474782899</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.02387958843534261</v>
+        <v>-0.02258998051438921</v>
       </c>
       <c r="O47" t="n">
-        <v>0.001286595123463805</v>
+        <v>0.001145258061810322</v>
       </c>
       <c r="P47" t="n">
-        <v>0.001286595123463805</v>
+        <v>0.001145258061810322</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.001286595123463805</v>
+        <v>0.001145258061810322</v>
       </c>
       <c r="R47" t="n">
-        <v>0.001286595123463805</v>
+        <v>0.001145258061810322</v>
       </c>
       <c r="S47" t="n">
-        <v>0.001286595123463805</v>
+        <v>0.001145258061810322</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>0.001673554434942177</v>
+        <v>0.00163777676951107</v>
       </c>
       <c r="V47" t="n">
-        <v>0.001303358740134349</v>
+        <v>0.001212003312480132</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001303358740134349</v>
+        <v>0.001212003312480132</v>
       </c>
       <c r="X47" t="n">
-        <v>0.001303358740134349</v>
+        <v>0.001212003312480132</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.001303358740134349</v>
+        <v>0.001212003312480132</v>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -4366,10 +4366,10 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>-0.00418173376726935</v>
+        <v>-0.004176101447044058</v>
       </c>
       <c r="AF47" t="n">
-        <v>-0.008344720173788804</v>
+        <v>-0.006266542810661711</v>
       </c>
     </row>
     <row r="48">
@@ -4384,11 +4384,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0056981400359256</v>
+        <v>0.00572860573314423</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>-0.01421699845667994</v>
+        <v>-0.01422929423317177</v>
       </c>
       <c r="F48" t="n">
         <v>0.009551408734056348</v>
@@ -4401,48 +4401,48 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.01894719368588774</v>
+        <v>0.01897166975086679</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01843089846523593</v>
+        <v>0.01844613692984548</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>0.01261537096861484</v>
+        <v>0.01261727676069107</v>
       </c>
       <c r="N48" t="n">
-        <v>0.002396288150345574</v>
+        <v>0.005126805480033359</v>
       </c>
       <c r="O48" t="n">
-        <v>0.002560127430405097</v>
+        <v>0.01390579514823181</v>
       </c>
       <c r="P48" t="n">
-        <v>0.002560127430405097</v>
+        <v>0.01390579514823181</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.002560127430405097</v>
+        <v>0.01390579514823181</v>
       </c>
       <c r="R48" t="n">
-        <v>0.002560127430405097</v>
+        <v>0.01390579514823181</v>
       </c>
       <c r="S48" t="n">
-        <v>0.002560127430405097</v>
+        <v>0.01390579514823181</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.001779739175189567</v>
+        <v>0.008646729273869169</v>
       </c>
       <c r="V48" t="n">
-        <v>0.002541578405663136</v>
+        <v>0.01393075831723033</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002541578405663136</v>
+        <v>0.01393075831723033</v>
       </c>
       <c r="X48" t="n">
-        <v>0.002541578405663136</v>
+        <v>0.01393075831723033</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.002541578405663136</v>
+        <v>0.01393075831723033</v>
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -4450,10 +4450,10 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="n">
-        <v>0.0143721026868841</v>
+        <v>0.01437275289491011</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.001181805647272226</v>
+        <v>-0.003632853553314142</v>
       </c>
     </row>
     <row r="49">
@@ -4468,11 +4468,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.01932971866118875</v>
+        <v>-0.01931388365255534</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>0.0143079824603193</v>
+        <v>0.01431129791645191</v>
       </c>
       <c r="F49" t="n">
         <v>-0.01065166583406663</v>
@@ -4485,48 +4485,48 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.002092251635690065</v>
+        <v>0.00211042299641692</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01079137329565493</v>
+        <v>0.01080261038410441</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>-0.002896976275879051</v>
+        <v>-0.002892751891710075</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01544228796385492</v>
+        <v>0.01704733601080884</v>
       </c>
       <c r="O49" t="n">
-        <v>0.009421759096870362</v>
+        <v>0.009774844710993788</v>
       </c>
       <c r="P49" t="n">
-        <v>0.009421759096870362</v>
+        <v>0.009774844710993788</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.009421759096870362</v>
+        <v>0.009774844710993788</v>
       </c>
       <c r="R49" t="n">
-        <v>0.009421759096870362</v>
+        <v>0.009774844710993788</v>
       </c>
       <c r="S49" t="n">
-        <v>0.009421759096870362</v>
+        <v>0.009774844710993788</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.01490844923633797</v>
+        <v>0.01491191867647675</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0093497025499881</v>
+        <v>0.009687267363490692</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0093497025499881</v>
+        <v>0.009687267363490692</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0093497025499881</v>
+        <v>0.009687267363490692</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0093497025499881</v>
+        <v>0.009687267363490692</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="n">
-        <v>-0.01634249028569961</v>
+        <v>-0.01634199780567991</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.01919444841577794</v>
+        <v>-0.01417691432707657</v>
       </c>
     </row>
     <row r="50">
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.00645203699408148</v>
+        <v>0.006421513408860535</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>0.005547225341889013</v>
+        <v>0.005552958942118357</v>
       </c>
       <c r="F50" t="n">
         <v>-0.004589713623588544</v>
@@ -4569,48 +4569,48 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.03282656137706245</v>
+        <v>0.03279408793576351</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01392813665312546</v>
+        <v>0.01391999940479997</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>-0.004314342316573692</v>
+        <v>-0.004310269324410772</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.01634546851216953</v>
+        <v>-0.01604269147228388</v>
       </c>
       <c r="O50" t="n">
-        <v>0.007560139886405594</v>
+        <v>0.007639633553585341</v>
       </c>
       <c r="P50" t="n">
-        <v>0.007560139886405594</v>
+        <v>0.007639633553585341</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.007560139886405594</v>
+        <v>0.007639633553585341</v>
       </c>
       <c r="R50" t="n">
-        <v>0.007560139886405594</v>
+        <v>0.007639633553585341</v>
       </c>
       <c r="S50" t="n">
-        <v>0.007560139886405594</v>
+        <v>0.007639633553585341</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>-0.006769510254780409</v>
+        <v>-0.006567487846699513</v>
       </c>
       <c r="V50" t="n">
-        <v>0.007666788978671558</v>
+        <v>0.007777960055118402</v>
       </c>
       <c r="W50" t="n">
-        <v>0.007666788978671558</v>
+        <v>0.007777960055118402</v>
       </c>
       <c r="X50" t="n">
-        <v>0.007666788978671558</v>
+        <v>0.007777960055118402</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.007666788978671558</v>
+        <v>0.007777960055118402</v>
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
@@ -4618,10 +4618,10 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
-        <v>-0.009746316773852669</v>
+        <v>-0.00974623930184957</v>
       </c>
       <c r="AF50" t="n">
-        <v>-0.005249750609990024</v>
+        <v>-0.01013515605340624</v>
       </c>
     </row>
     <row r="51">
@@ -4636,11 +4636,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.01341534648861386</v>
+        <v>-0.0134115425844617</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>0.0001234749169389967</v>
+        <v>0.0001272059570882383</v>
       </c>
       <c r="F51" t="n">
         <v>-0.000942308677692347</v>
@@ -4653,48 +4653,48 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.007896717435868696</v>
+        <v>0.007858188506327539</v>
       </c>
       <c r="K51" t="n">
-        <v>0.004044388673775546</v>
+        <v>0.003996054783842191</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>0.004473561874942474</v>
+        <v>0.004470221938808877</v>
       </c>
       <c r="N51" t="n">
-        <v>0.002221779939836571</v>
+        <v>-0.0003478691613182124</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.002626066473042659</v>
+        <v>-0.002631279177251167</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.002626066473042659</v>
+        <v>-0.002631279177251167</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.002626066473042659</v>
+        <v>-0.002631279177251167</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.002626066473042659</v>
+        <v>-0.002631279177251167</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.002626066473042659</v>
+        <v>-0.002631279177251167</v>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>-0.00226944527477781</v>
+        <v>-0.002214535288581411</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.002557429926297196</v>
+        <v>-0.002581842151273686</v>
       </c>
       <c r="W51" t="n">
-        <v>-0.002557429926297196</v>
+        <v>-0.002581842151273686</v>
       </c>
       <c r="X51" t="n">
-        <v>-0.002557429926297196</v>
+        <v>-0.002581842151273686</v>
       </c>
       <c r="Y51" t="n">
-        <v>-0.002557429926297196</v>
+        <v>-0.002581842151273686</v>
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -4702,10 +4702,10 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="n">
-        <v>0.01031268626850745</v>
+        <v>0.01030452118018085</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0004831878913275155</v>
+        <v>0.00131346600453864</v>
       </c>
     </row>
   </sheetData>
